--- a/Working_data/matlab.xlsx
+++ b/Working_data/matlab.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10619235_polimi_it/Documents/Documenti/GitHub/AD-OCS/Working_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_73835BDF5EA509322DECC78DD0224905C5067974" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EFCA01C-0085-4BB3-BA90-4C373B4A9850}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_73835BDF5EA509322DECC78DD0224905C5067974" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F2A49DC-858B-403D-B502-C80F9A703115}"/>
   <bookViews>
-    <workbookView xWindow="-20600" yWindow="-110" windowWidth="20710" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20600" yWindow="-110" windowWidth="20710" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SS_Values" sheetId="1" r:id="rId1"/>
     <sheet name="Influent" sheetId="2" r:id="rId2"/>
+    <sheet name="Deviations" sheetId="3" r:id="rId3"/>
+    <sheet name="Reactor" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>HRT</t>
   </si>
@@ -90,6 +92,39 @@
   </si>
   <si>
     <t>xW</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>Dr</t>
+  </si>
+  <si>
+    <t>H0</t>
+  </si>
+  <si>
+    <t>hmax</t>
+  </si>
+  <si>
+    <t>hmin</t>
+  </si>
+  <si>
+    <t>Vr</t>
+  </si>
+  <si>
+    <t>Vh</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
 </sst>
 </file>
@@ -146,11 +181,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,7 +491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1041,7 +1077,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1092,7 +1128,7 @@
         <v>28.009599999999999</v>
       </c>
       <c r="F2">
-        <v>170</v>
+        <v>640</v>
       </c>
       <c r="G2">
         <v>6.78</v>
@@ -1107,4 +1143,167 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6795E4DC-BF5C-438D-A0B2-D9FCD3B1700F}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F8BC71F-0595-407C-8897-64D715E1ADB9}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0.05</v>
+      </c>
+      <c r="B2">
+        <v>35</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>3400</v>
+      </c>
+      <c r="J2">
+        <v>350</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>